--- a/JointsData.xlsx
+++ b/JointsData.xlsx
@@ -546,142 +546,142 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Joint(type=PyNuitrack.py_nuitrack.JointType.head, confidence=0.75, real=array([ 56.208313,  83.85524 , 836.31085 ], dtype=float32), projection=array([348.91913, 196.85652, 836.31085], dtype=float32), orientation=array([[ 0.9953865 ,  0.09134982, -0.02934158],
-       [-0.09309088,  0.9935474 , -0.06478937],
-       [ 0.02323375,  0.06722189,  0.9974675 ]], dtype=float32))</t>
+          <t>Joint(type=PyNuitrack.py_nuitrack.JointType.head, confidence=0.75, real=array([ 39.576725, 300.0312  , 580.2326  ], dtype=float32), projection=array([349.34882 ,  17.506681, 580.2326  ], dtype=float32), orientation=array([[ 0.9979723 , -0.06150169, -0.01639427],
+       [ 0.06272399,  0.9065221 ,  0.41747257],
+       [-0.0108135 , -0.4176544 ,  0.9085416 ]], dtype=float32))</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Joint(type=PyNuitrack.py_nuitrack.JointType.neck, confidence=0.75, real=array([ 67.05487, -13.62229, 833.87964], dtype=float32), projection=array([354.60028, 247.0291 , 833.87964], dtype=float32), orientation=array([[ 0.9953865 ,  0.09134982, -0.02934158],
-       [-0.09309088,  0.9935474 , -0.06478937],
-       [ 0.02323375,  0.06722189,  0.9974675 ]], dtype=float32))</t>
+          <t>Joint(type=PyNuitrack.py_nuitrack.JointType.neck, confidence=0.75, real=array([ 46.76316, 191.3231 , 611.4101 ], dtype=float32), projection=array([352.9097 , 105.35584, 611.4101 ], dtype=float32), orientation=array([[ 0.9979723 , -0.06150169, -0.01639427],
+       [ 0.06272399,  0.9065221 ,  0.41747257],
+       [-0.0108135 , -0.4176544 ,  0.9085416 ]], dtype=float32))</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Joint(type=PyNuitrack.py_nuitrack.JointType.torso, confidence=0.75, real=array([  23.93721, -304.55594,  905.9859 ], dtype=float32), projection=array([331.36853, 384.6433 , 905.9859 ], dtype=float32), orientation=array([[ 9.9538648e-01,  9.5944278e-02,  6.4289605e-04],
-       [-9.3090877e-02,  9.6411753e-01,  2.4861906e-01],
-       [ 2.3233749e-02, -2.4753191e-01,  9.6860111e-01]], dtype=float32))</t>
+          <t>Joint(type=PyNuitrack.py_nuitrack.JointType.torso, confidence=0.75, real=array([  71.22363, -109.30397,  689.82446], dtype=float32), projection=array([364.42612, 308.1789 , 689.82446], dtype=float32), orientation=array([[ 0.9979723 , -0.06362117, -0.00189124],
+       [ 0.06272399,  0.97798216,  0.19903918],
+       [-0.0108135 , -0.19875422,  0.9799897 ]], dtype=float32))</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Joint(type=PyNuitrack.py_nuitrack.JointType.waist, confidence=0.75, real=array([  18.834188, -468.0769  ,  886.77325 ], dtype=float32), projection=array([329.13876, 467.12103, 886.77325], dtype=float32), orientation=array([[ 0.9953865 ,  0.08935659, -0.03494449],
-       [-0.09309088,  0.9876251 , -0.12621687],
-       [ 0.02323375,  0.12888758,  0.991387  ]], dtype=float32))</t>
+          <t>Joint(type=PyNuitrack.py_nuitrack.JointType.waist, confidence=0.75, real=array([  72.57308, -297.07605,  671.5112 ], dtype=float32), projection=array([366.50235, 430.3562 , 671.5112 ], dtype=float32), orientation=array([[ 0.9979723 , -0.06211102,  0.01390867],
+       [ 0.06272399,  0.99682134, -0.04912104],
+       [-0.0108135 ,  0.04989384,  0.99869597]], dtype=float32))</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Joint(type=PyNuitrack.py_nuitrack.JointType.left_collar, confidence=0.75, real=array([ 56.712215, -83.40869 , 851.1758  ], dtype=float32), projection=array([348.66882, 282.16428, 851.1758 ], dtype=float32), orientation=array([[ 9.9877775e-01,  4.9422950e-02,  6.4289605e-04],
-       [-4.8030782e-02,  9.6740973e-01,  2.4861906e-01],
-       [ 1.1665544e-02, -2.4834606e-01,  9.6860111e-01]], dtype=float32))</t>
+          <t>Joint(type=PyNuitrack.py_nuitrack.JointType.left_collar, confidence=0.75, real=array([ 52.887363, 116.05469 , 631.0428  ], dtype=float32), projection=array([356.06168, 160.86719, 631.0428 ], dtype=float32), orientation=array([[ 0.9985154 , -0.05443728, -0.00189124],
+       [ 0.05372404,  0.97851783,  0.19903918],
+       [-0.00898454, -0.19884528,  0.9799897 ]], dtype=float32))</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Joint(type=PyNuitrack.py_nuitrack.JointType.left_shoulder, confidence=0.75, real=array([193.53404, -97.95524, 849.7113 ], dtype=float32), projection=array([418.00287, 289.60312, 849.7113 ], dtype=float32), orientation=array([[ 0.05500036,  0.35385177,  0.933683  ],
-       [-0.14578828,  0.9279231 , -0.34308094],
-       [-0.98778576, -0.11725046,  0.10262354]], dtype=float32))</t>
+          <t>Joint(type=PyNuitrack.py_nuitrack.JointType.left_shoulder, confidence=0.75, real=array([198.68515, 118.14369, 606.392  ], dtype=float32), projection=array([460.9823 , 156.16801, 606.392  ], dtype=float32), orientation=array([[ 0.30803308,  0.5777105 , -0.7558877 ],
+       [-0.91232204,  0.4046761 , -0.0624957 ],
+       [ 0.26978526,  0.70886374,  0.6517117 ]], dtype=float32))</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Joint(type=PyNuitrack.py_nuitrack.JointType.left_elbow, confidence=0.75, real=array([ 212.36359, -109.47496,  609.5731 ], dtype=float32), projection=array([469.9018 , 317.27548, 609.5731 ], dtype=float32), orientation=array([[-0.27332538,  0.35385177,  0.89447314],
-       [-0.01729761,  0.9279231 , -0.37237015],
-       [-0.9617661 , -0.11725046, -0.24750416]], dtype=float32))</t>
+          <t>Joint(type=PyNuitrack.py_nuitrack.JointType.left_elbow, confidence=0.75, real=array([ 277.4646 , -111.42536,  698.843  ], dtype=float32), projection=array([490.8365 , 308.60522, 698.843  ], dtype=float32), orientation=array([[ 0.2947941 ,  0.5777105 , -0.76114845],
+       [-0.9132738 ,  0.4046761 , -0.04656396],
+       [ 0.2811181 ,  0.70886374,  0.64690405]], dtype=float32))</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Joint(type=PyNuitrack.py_nuitrack.JointType.left_wrist, confidence=0.75, real=array([ 142.82065, -130.91342,  390.70657], dtype=float32), projection=array([477.28705, 384.17374, 390.70657], dtype=float32), orientation=array([[-0.27332538,  0.35385177,  0.89447314],
-       [-0.01729761,  0.9279231 , -0.37237015],
-       [-0.9617661 , -0.11725046, -0.24750416]], dtype=float32))</t>
+          <t>Joint(type=PyNuitrack.py_nuitrack.JointType.left_wrist, confidence=0.0, real=array([ 277.4646 , -348.82062,  698.843  ], dtype=float32), projection=array([490.8365 , 454.77078, 698.843  ], dtype=float32), orientation=array([[ 0.2947941 ,  0.5777105 , -0.76114845],
+       [-0.9132738 ,  0.4046761 , -0.04656396],
+       [ 0.2811181 ,  0.70886374,  0.64690405]], dtype=float32))</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Joint(type=PyNuitrack.py_nuitrack.JointType.left_hand, confidence=0.75, real=array([ 128.91206, -135.20111,  346.93326], dtype=float32), projection=array([479.88226, 407.68222, 346.93326], dtype=float32), orientation=array([[-0.27332538,  0.35385177,  0.89447314],
-       [-0.01729761,  0.9279231 , -0.37237015],
-       [-0.9617661 , -0.11725046, -0.24750416]], dtype=float32))</t>
+          <t>Joint(type=PyNuitrack.py_nuitrack.JointType.left_hand, confidence=0.0, real=array([ 277.4646 , -445.53162,  698.843  ], dtype=float32), projection=array([490.8365, 514.3163, 698.843 ], dtype=float32), orientation=array([[ 0.2947941 ,  0.5777105 , -0.76114845],
+       [-0.9132738 ,  0.4046761 , -0.04656396],
+       [ 0.2811181 ,  0.70886374,  0.64690405]], dtype=float32))</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Joint(type=PyNuitrack.py_nuitrack.JointType.right_collar, confidence=0.75, real=array([ 56.712215, -83.40869 , 851.1758  ], dtype=float32), projection=array([348.66882, 282.16428, 851.1758 ], dtype=float32), orientation=array([[ 9.9877775e-01,  4.9422950e-02,  6.4289605e-04],
-       [-4.8030782e-02,  9.6740973e-01,  2.4861906e-01],
-       [ 1.1665544e-02, -2.4834606e-01,  9.6860111e-01]], dtype=float32))</t>
+          <t>Joint(type=PyNuitrack.py_nuitrack.JointType.right_collar, confidence=0.75, real=array([ 52.887363, 116.05469 , 631.0428  ], dtype=float32), projection=array([356.06168, 160.86719, 631.0428 ], dtype=float32), orientation=array([[ 0.9985154 , -0.05443728, -0.00189124],
+       [ 0.05372404,  0.97851783,  0.19903918],
+       [-0.00898454, -0.19884528,  0.9799897 ]], dtype=float32))</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Joint(type=PyNuitrack.py_nuitrack.JointType.right_shoulder, confidence=0.75, real=array([-72.038025, -75.44837 , 847.67706 ], dtype=float32), projection=array([283.43344, 278.29764, 847.67706], dtype=float32), orientation=array([[ 0.57410425, -0.80560696, -0.14629343],
-       [ 0.7880574 ,  0.5921558 , -0.16827652],
-       [ 0.22219324, -0.01867936,  0.9748237 ]], dtype=float32))</t>
+          <t>Joint(type=PyNuitrack.py_nuitrack.JointType.right_shoulder, confidence=0.75, real=array([-97.8305 , 107.04057, 632.6192 ], dtype=float32), projection=array([253.45975, 167.1954 , 632.6192 ], dtype=float32), orientation=array([[ 0.14538036, -0.9135628 , -0.37982574],
+       [ 0.9146816 ,  0.27043965, -0.30036634],
+       [ 0.37712348, -0.30375224,  0.8749357 ]], dtype=float32))</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Joint(type=PyNuitrack.py_nuitrack.JointType.right_elbow, confidence=0.75, real=array([-206.11249, -269.3396 ,  796.84564], dtype=float32), projection=array([208.70317, 385.43826, 796.84564], dtype=float32), orientation=array([[-0.06558704, -0.80560696, -0.5888088 ],
-       [-0.05780496,  0.5921558 , -0.80374753],
-       [ 0.9961711 , -0.01867936, -0.08540583]], dtype=float32))</t>
+          <t>Joint(type=PyNuitrack.py_nuitrack.JointType.right_elbow, confidence=0.75, real=array([-140.91501, -128.91814,  533.00726], dtype=float32), projection=array([206.24335, 344.07193, 533.00726], dtype=float32), orientation=array([[-0.32937625, -0.9135628 , -0.23856723],
+       [-0.05387779,  0.27043965, -0.96122813],
+       [ 0.94266033, -0.30375224, -0.13829716]], dtype=float32))</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Joint(type=PyNuitrack.py_nuitrack.JointType.right_wrist, confidence=0.75, real=array([-194.33661, -257.13107,  566.82245], dtype=float32), projection=array([172.47682, 435.1912 , 566.82245], dtype=float32), orientation=array([[-0.06558704, -0.80560696, -0.5888088 ],
-       [-0.05780496,  0.5921558 , -0.80374753],
-       [ 0.9961711 , -0.01867936, -0.08540583]], dtype=float32))</t>
+          <t>Joint(type=PyNuitrack.py_nuitrack.JointType.right_wrist, confidence=0.75, real=array([ -57.45611, -115.57564,  311.167  ], dtype=float32), projection=array([240.54974, 399.81793, 311.167  ], dtype=float32), orientation=array([[-0.32937625, -0.9135628 , -0.23856723],
+       [-0.05387779,  0.27043965, -0.96122813],
+       [ 0.94266033, -0.30375224, -0.13829716]], dtype=float32))</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Joint(type=PyNuitrack.py_nuitrack.JointType.right_hand, confidence=0.75, real=array([-191.98143, -254.68936,  520.8178 ], dtype=float32), projection=array([161.39163, 450.41547, 520.8178 ], dtype=float32), orientation=array([[-0.06558704, -0.80560696, -0.5888088 ],
-       [-0.05780496,  0.5921558 , -0.80374753],
-       [ 0.9961711 , -0.01867936, -0.08540583]], dtype=float32))</t>
+          <t>Joint(type=PyNuitrack.py_nuitrack.JointType.right_hand, confidence=0.75, real=array([ -40.764328, -112.907135,  266.79895 ], dtype=float32), projection=array([254.25708, 422.0916 , 266.79895], dtype=float32), orientation=array([[-0.32937625, -0.9135628 , -0.23856723],
+       [-0.05387779,  0.27043965, -0.96122813],
+       [ 0.94266033, -0.30375224, -0.13829716]], dtype=float32))</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Joint(type=PyNuitrack.py_nuitrack.JointType.left_hip, confidence=0.0, real=array([  92.808105, -579.67053 ,  866.7655  ], dtype=float32), projection=array([366.07202, 527.7612 , 866.7655 ], dtype=float32), orientation=array([[ 0.9953865 ,  0.08935659, -0.03494449],
-       [-0.09309088,  0.9876251 , -0.12621687],
-       [ 0.02323375,  0.12888758,  0.991387  ]], dtype=float32))</t>
+          <t>Joint(type=PyNuitrack.py_nuitrack.JointType.left_hip, confidence=0.75, real=array([ 177.24062, -338.39648,  679.8087 ], dtype=float32), projection=array([432.18356, 454.18637, 679.8087 ], dtype=float32), orientation=array([[ 0.9599877 ,  0.27969655,  0.01390867],
+       [-0.27872986,  0.9591125 , -0.04912104],
+       [-0.02707897,  0.04327883,  0.99869597]], dtype=float32))</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Joint(type=PyNuitrack.py_nuitrack.JointType.left_knee, confidence=0.0, real=array([  92.808105, -940.0288  ,  866.7655  ], dtype=float32), projection=array([366.07202, 706.65106, 866.7655 ], dtype=float32), orientation=array([[ 0.9953865 ,  0.09406711, -0.018897  ],
-       [-0.09309088,  0.9945382 ,  0.04719995],
-       [ 0.02323375, -0.04522305,  0.9987067 ]], dtype=float32))</t>
+          <t>Joint(type=PyNuitrack.py_nuitrack.JointType.left_knee, confidence=0.0, real=array([ 177.24062, -725.49225,  679.8087 ], dtype=float32), projection=array([432.18356, 699.1967 , 679.8087 ], dtype=float32), orientation=array([[ 0.9599877 ,  0.2730321 ,  0.06226616],
+       [-0.27872986,  0.9530712 ,  0.11817336],
+       [-0.02707897, -0.13080041,  0.99103886]], dtype=float32))</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Joint(type=PyNuitrack.py_nuitrack.JointType.left_ankle, confidence=0.0, real=array([   92.808105, -1279.0001  ,   866.7655  ], dtype=float32), projection=array([366.07202, 874.9239 , 866.7655 ], dtype=float32), orientation=array([[ 0.9953865 ,  0.09406711, -0.018897  ],
-       [-0.09309088,  0.9945382 ,  0.04719995],
-       [ 0.02323375, -0.04522305,  0.9987067 ]], dtype=float32))</t>
+          <t>Joint(type=PyNuitrack.py_nuitrack.JointType.left_ankle, confidence=0.0, real=array([  177.24062, -1089.6141 ,   679.8087 ], dtype=float32), projection=array([432.18356, 929.66583, 679.8087 ], dtype=float32), orientation=array([[ 0.9599877 ,  0.2730321 ,  0.06226616],
+       [-0.27872986,  0.9530712 ,  0.11817336],
+       [-0.02707897, -0.13080041,  0.99103886]], dtype=float32))</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>Joint(type=PyNuitrack.py_nuitrack.JointType.right_hip, confidence=0.0, real=array([ -57.341167, -577.5081  ,  907.1406  ], dtype=float32), projection=array([292.8015 , 513.92786, 907.1406 ], dtype=float32), orientation=array([[ 0.9953865 ,  0.08935659, -0.03494449],
-       [-0.09309088,  0.9876251 , -0.12621687],
-       [ 0.02323375,  0.12888758,  0.991387  ]], dtype=float32))</t>
+          <t>Joint(type=PyNuitrack.py_nuitrack.JointType.right_hip, confidence=0.75, real=array([ -17.558197, -371.2383  ,  650.6163  ], dtype=float32), projection=array([308.38797, 485.5164 , 650.6163 ], dtype=float32), orientation=array([[ 0.916544  , -0.3996919 ,  0.01390867],
+       [ 0.39987424,  0.9152528 , -0.04912104],
+       [ 0.00690333,  0.05058331,  0.99869597]], dtype=float32))</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>Joint(type=PyNuitrack.py_nuitrack.JointType.right_knee, confidence=0.0, real=array([ -57.341167, -937.86646 ,  907.1406  ], dtype=float32), projection=array([292.8015 , 684.85565, 907.1406 ], dtype=float32), orientation=array([[ 0.9953865 ,  0.09406711, -0.018897  ],
-       [-0.09309088,  0.9945382 ,  0.04719995],
-       [ 0.02323375, -0.04522305,  0.9987067 ]], dtype=float32))</t>
+          <t>Joint(type=PyNuitrack.py_nuitrack.JointType.right_knee, confidence=0.0, real=array([ -17.558197, -758.3341  ,  650.6163  ], dtype=float32), projection=array([308.38797, 741.52014, 650.6163 ], dtype=float32), orientation=array([[ 0.916544  , -0.3960349 , -0.0557084 ],
+       [ 0.39987424,  0.90987784,  0.11055721],
+       [ 0.00690333, -0.1236069 ,  0.99230725]], dtype=float32))</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>Joint(type=PyNuitrack.py_nuitrack.JointType.right_ankle, confidence=0.0, real=array([  -57.341167, -1276.8378  ,   907.1406  ], dtype=float32), projection=array([292.8015, 845.639 , 907.1406], dtype=float32), orientation=array([[ 0.9953865 ,  0.09406711, -0.018897  ],
-       [-0.09309088,  0.9945382 ,  0.04719995],
-       [ 0.02323375, -0.04522305,  0.9987067 ]], dtype=float32))</t>
+          <t>Joint(type=PyNuitrack.py_nuitrack.JointType.right_ankle, confidence=0.0, real=array([  -17.558197, -1122.456   ,   650.6163  ], dtype=float32), projection=array([308.38797, 982.3302 , 650.6163 ], dtype=float32), orientation=array([[ 0.916544  , -0.3960349 , -0.0557084 ],
+       [ 0.39987424,  0.90987784,  0.11055721],
+       [ 0.00690333, -0.1236069 ,  0.99230725]], dtype=float32))</t>
         </is>
       </c>
     </row>
